--- a/step4_p1_bollinger_follow_2021-07-02.xlsx
+++ b/step4_p1_bollinger_follow_2021-07-02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\choisj\yahoo_stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF26B47-A203-492F-8793-1A936D7883C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C674FFAE-0EDE-4D2B-80E3-110A26DAC3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33210" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1135,44 +1135,44 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
+      <c r="C2" t="s">
+        <v>183</v>
       </c>
       <c r="D2">
         <v>601020</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="F2">
-        <v>18.489999771118161</v>
+        <v>15.86999988555908</v>
       </c>
       <c r="G2">
-        <v>23.059999465942379</v>
+        <v>17.819999694824219</v>
       </c>
       <c r="H2" s="2">
-        <v>24.71606139207567</v>
+        <v>12.28733348032056</v>
       </c>
       <c r="I2">
-        <v>24.060374450444559</v>
+        <v>19.558121656440552</v>
       </c>
       <c r="J2">
-        <v>22.992625236750261</v>
+        <v>17.379878259636111</v>
       </c>
       <c r="K2">
-        <v>1.067749213694299</v>
+        <v>2.178243396804433</v>
       </c>
       <c r="L2">
-        <v>1.3922246716448949</v>
+        <v>8.1754520960833421</v>
       </c>
       <c r="M2">
-        <v>23.729999542236332</v>
+        <v>18.079999923706051</v>
       </c>
       <c r="N2" t="s">
         <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1182,41 +1182,41 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>212</v>
+      <c r="C3" t="s">
+        <v>96</v>
       </c>
       <c r="D3">
-        <v>534030</v>
+        <v>541020</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="F3">
-        <v>92.94000244140625</v>
+        <v>8.1700000762939453</v>
       </c>
       <c r="G3">
-        <v>103.1699981689453</v>
+        <v>10.039999961853029</v>
       </c>
       <c r="H3" s="2">
-        <v>11.007096469562221</v>
+        <v>22.888615276578399</v>
       </c>
       <c r="I3">
-        <v>106.9618710014351</v>
+        <v>12.07853543616614</v>
       </c>
       <c r="J3">
-        <v>101.339127686309</v>
+        <v>9.864464403616573</v>
       </c>
       <c r="K3">
-        <v>5.6227433151260584</v>
+        <v>2.2140710325495689</v>
       </c>
       <c r="L3">
-        <v>2.0141846047191452</v>
+        <v>19.000353597206551</v>
       </c>
       <c r="M3">
-        <v>104.84999847412109</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
@@ -1230,40 +1230,40 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D4">
-        <v>551010</v>
+        <v>533010</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F4">
-        <v>5.3600001335144043</v>
+        <v>8.3900003433227539</v>
       </c>
       <c r="G4">
-        <v>6.2100000381469727</v>
+        <v>9.8999996185302734</v>
       </c>
       <c r="H4" s="2">
-        <v>15.858206780962281</v>
+        <v>17.997606834536839</v>
       </c>
       <c r="I4">
-        <v>6.5376605415926896</v>
+        <v>11.02326169766908</v>
       </c>
       <c r="J4">
-        <v>6.1783395385159521</v>
+        <v>9.41273826799865</v>
       </c>
       <c r="K4">
-        <v>0.35932100307673842</v>
+        <v>1.6105234296704261</v>
       </c>
       <c r="L4">
-        <v>2.1509444402181002</v>
+        <v>8.9255120783046635</v>
       </c>
       <c r="M4">
-        <v>6.4000000953674316</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="O4" t="s">
         <v>19</v>
@@ -1277,43 +1277,43 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5">
         <v>601020</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F5">
-        <v>186.5</v>
+        <v>42.380001068115227</v>
       </c>
       <c r="G5">
-        <v>208.69000244140619</v>
+        <v>47.430000305175781</v>
       </c>
       <c r="H5" s="2">
-        <v>11.8981246334618</v>
+        <v>11.91599601176021</v>
       </c>
       <c r="I5">
-        <v>215.6777016783644</v>
+        <v>50.567650512699252</v>
       </c>
       <c r="J5">
-        <v>207.3443014954637</v>
+        <v>46.901349349971653</v>
       </c>
       <c r="K5">
-        <v>8.3334001829006752</v>
+        <v>3.6663011627276059</v>
       </c>
       <c r="L5">
-        <v>2.4548512214989628</v>
+        <v>5.481126327205013</v>
       </c>
       <c r="M5">
-        <v>210.50999450683591</v>
+        <v>47.939998626708977</v>
       </c>
       <c r="N5" t="s">
         <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1321,43 +1321,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D6">
-        <v>534030</v>
+        <v>501020</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F6">
-        <v>15.22000026702881</v>
+        <v>17.860000610351559</v>
       </c>
       <c r="G6">
-        <v>17.54999923706055</v>
+        <v>21.629999160766602</v>
       </c>
       <c r="H6" s="2">
-        <v>15.308797169203951</v>
+        <v>21.108613782633181</v>
       </c>
       <c r="I6">
-        <v>18.307329356166299</v>
+        <v>23.791415701815779</v>
       </c>
       <c r="J6">
-        <v>17.452670300510949</v>
+        <v>20.592584313443009</v>
       </c>
       <c r="K6">
-        <v>0.85465905565534683</v>
+        <v>3.198831388372767</v>
       </c>
       <c r="L6">
-        <v>2.6771140465659951</v>
+        <v>8.537480013723787</v>
       </c>
       <c r="M6">
-        <v>17.829999923706051</v>
+        <v>21.920000076293949</v>
       </c>
       <c r="N6" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
@@ -1371,43 +1371,43 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="D7">
-        <v>561020</v>
+        <v>601020</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="F7">
-        <v>51.299999237060547</v>
+        <v>14.090000152587891</v>
       </c>
       <c r="G7">
-        <v>66.989997863769531</v>
+        <v>15.94999980926514</v>
       </c>
       <c r="H7" s="2">
-        <v>30.58479309951743</v>
+        <v>13.200849088249459</v>
       </c>
       <c r="I7">
-        <v>69.802049345414275</v>
+        <v>16.891241025971421</v>
       </c>
       <c r="J7">
-        <v>65.957949739058392</v>
+        <v>15.826759481383309</v>
       </c>
       <c r="K7">
-        <v>3.8440996063558832</v>
+        <v>1.0644815445881119</v>
       </c>
       <c r="L7">
-        <v>2.7709823722131408</v>
+        <v>5.5043147063785911</v>
       </c>
       <c r="M7">
-        <v>67.919998168945313</v>
+        <v>16.010000228881839</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1415,46 +1415,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>501020</v>
+        <v>562020</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>71.480003356933594</v>
+        <v>1.299999952316284</v>
       </c>
       <c r="G8">
-        <v>87.319999694824219</v>
+        <v>1.690000057220459</v>
       </c>
       <c r="H8" s="2">
-        <v>22.16003860379525</v>
+        <v>30.000009169945699</v>
       </c>
       <c r="I8">
-        <v>91.656969050848502</v>
+        <v>2.110706924217332</v>
       </c>
       <c r="J8">
-        <v>85.071030827081174</v>
+        <v>1.6262930524176471</v>
       </c>
       <c r="K8">
-        <v>6.5859382237673287</v>
+        <v>0.48441387179968493</v>
       </c>
       <c r="L8">
-        <v>3.1128019801992348</v>
+        <v>19.92653043491007</v>
       </c>
       <c r="M8">
-        <v>88.889999389648438</v>
+        <v>1.7599999904632571</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1462,46 +1462,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>161</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D9">
-        <v>551010</v>
+        <v>562020</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="F9">
-        <v>89.930000305175781</v>
+        <v>4.1999998092651367</v>
       </c>
       <c r="G9">
-        <v>102.55999755859381</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="H9" s="2">
-        <v>14.044253542264331</v>
+        <v>10.00000227065323</v>
       </c>
       <c r="I9">
-        <v>106.6782060131797</v>
+        <v>5.1962548022163659</v>
       </c>
       <c r="J9">
-        <v>101.6347929492227</v>
+        <v>4.5437452550040938</v>
       </c>
       <c r="K9">
-        <v>5.0434130639569901</v>
+        <v>0.65250954721227217</v>
       </c>
       <c r="L9">
-        <v>3.15046209816383</v>
+        <v>7.3606330247322456</v>
       </c>
       <c r="M9">
-        <v>103.4199981689453</v>
+        <v>4.8400001525878906</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1512,40 +1512,40 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="D10">
-        <v>551010</v>
+        <v>601020</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="F10">
-        <v>22.35000038146973</v>
+        <v>186.5</v>
       </c>
       <c r="G10">
-        <v>27.409999847412109</v>
+        <v>208.69000244140619</v>
       </c>
       <c r="H10" s="2">
-        <v>22.639818253146888</v>
+        <v>11.8981246334618</v>
       </c>
       <c r="I10">
-        <v>28.79167063974905</v>
+        <v>215.6777016783644</v>
       </c>
       <c r="J10">
-        <v>26.896329276327609</v>
+        <v>207.3443014954637</v>
       </c>
       <c r="K10">
-        <v>1.8953413634214371</v>
+        <v>8.3334001829006752</v>
       </c>
       <c r="L10">
-        <v>3.567163416920144</v>
+        <v>2.4548512214989628</v>
       </c>
       <c r="M10">
-        <v>27.79999923706055</v>
+        <v>210.50999450683591</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O10" t="s">
         <v>19</v>
@@ -1558,41 +1558,41 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
+      <c r="C11" t="s">
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>522030</v>
+        <v>551010</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F11">
-        <v>16.870000839233398</v>
+        <v>5.3600001335144043</v>
       </c>
       <c r="G11">
-        <v>25.989999771118161</v>
+        <v>6.2100000381469727</v>
       </c>
       <c r="H11" s="2">
-        <v>54.060453338419599</v>
+        <v>15.858206780962281</v>
       </c>
       <c r="I11">
-        <v>27.433196430155441</v>
+        <v>6.5376605415926896</v>
       </c>
       <c r="J11">
-        <v>25.132803173116049</v>
+        <v>6.1783395385159521</v>
       </c>
       <c r="K11">
-        <v>2.3003932570393961</v>
+        <v>0.35932100307673842</v>
       </c>
       <c r="L11">
-        <v>3.5996861948533549</v>
+        <v>2.1509444402181002</v>
       </c>
       <c r="M11">
-        <v>26.479999542236332</v>
+        <v>6.4000000953674316</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
         <v>19</v>
@@ -1603,43 +1603,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>501030</v>
+        <v>562020</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>30.920000076293949</v>
+        <v>10.11999988555908</v>
       </c>
       <c r="G12">
-        <v>39.459999084472663</v>
+        <v>15.810000419616699</v>
       </c>
       <c r="H12" s="2">
-        <v>27.619660372272261</v>
+        <v>56.22530235575465</v>
       </c>
       <c r="I12">
-        <v>41.737414520013381</v>
+        <v>17.62348536371605</v>
       </c>
       <c r="J12">
-        <v>38.983585006964162</v>
+        <v>15.315514575248789</v>
       </c>
       <c r="K12">
-        <v>2.7538295130492259</v>
+        <v>2.3079707884672662</v>
       </c>
       <c r="L12">
-        <v>3.643938528852948</v>
+        <v>8.3188990035125006</v>
       </c>
       <c r="M12">
-        <v>40.270000457763672</v>
+        <v>16.270000457763668</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O12" t="s">
         <v>19</v>
@@ -1653,40 +1653,40 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D13">
-        <v>501020</v>
+        <v>551010</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>72.300003051757813</v>
+        <v>22.35000038146973</v>
       </c>
       <c r="G13">
-        <v>83.44000244140625</v>
+        <v>27.409999847412109</v>
       </c>
       <c r="H13" s="2">
-        <v>15.40802063545361</v>
+        <v>22.639818253146888</v>
       </c>
       <c r="I13">
-        <v>89.248069642703214</v>
+        <v>28.79167063974905</v>
       </c>
       <c r="J13">
-        <v>80.681928373654202</v>
+        <v>26.896329276327609</v>
       </c>
       <c r="K13">
-        <v>8.5661412690490124</v>
+        <v>1.8953413634214371</v>
       </c>
       <c r="L13">
-        <v>3.7888962203433412</v>
+        <v>3.567163416920144</v>
       </c>
       <c r="M13">
-        <v>85.989997863769531</v>
+        <v>27.79999923706055</v>
       </c>
       <c r="N13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O13" t="s">
         <v>19</v>
@@ -1700,40 +1700,40 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D14">
-        <v>562010</v>
+        <v>551010</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="F14">
-        <v>40.959999084472663</v>
+        <v>89.930000305175781</v>
       </c>
       <c r="G14">
-        <v>45.849998474121087</v>
+        <v>102.55999755859381</v>
       </c>
       <c r="H14" s="2">
-        <v>11.938475339229599</v>
+        <v>14.044253542264331</v>
       </c>
       <c r="I14">
-        <v>48.497329302442573</v>
+        <v>106.6782060131797</v>
       </c>
       <c r="J14">
-        <v>45.458670453416808</v>
+        <v>101.6347929492227</v>
       </c>
       <c r="K14">
-        <v>3.0386588490257509</v>
+        <v>5.0434130639569901</v>
       </c>
       <c r="L14">
-        <v>3.8264402761764429</v>
+        <v>3.15046209816383</v>
       </c>
       <c r="M14">
-        <v>46.709999084472663</v>
+        <v>103.4199981689453</v>
       </c>
       <c r="N14" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="O14" t="s">
         <v>19</v>
@@ -1746,41 +1746,41 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D15">
-        <v>501020</v>
+        <v>601020</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>16.739999771118161</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="G15">
-        <v>23.280000686645511</v>
+        <v>23.409999847412109</v>
       </c>
       <c r="H15" s="2">
-        <v>39.06810636169142</v>
+        <v>24.521280837415361</v>
       </c>
       <c r="I15">
-        <v>25.655999269213108</v>
+        <v>25.694695936891151</v>
       </c>
       <c r="J15">
-        <v>22.576000891004171</v>
+        <v>22.848303902891569</v>
       </c>
       <c r="K15">
-        <v>3.0799983782089408</v>
+        <v>2.8463920339995852</v>
       </c>
       <c r="L15">
-        <v>4.0389271206971458</v>
+        <v>8.7376083345470867</v>
       </c>
       <c r="M15">
-        <v>24.659999847412109</v>
+        <v>23.629999160766602</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="O15" t="s">
         <v>19</v>
@@ -1791,43 +1791,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
       </c>
       <c r="D16">
-        <v>501020</v>
+        <v>501030</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="F16">
-        <v>35.180000305175781</v>
+        <v>12.77000045776367</v>
       </c>
       <c r="G16">
-        <v>45.790000915527337</v>
+        <v>14.47999954223633</v>
       </c>
       <c r="H16" s="2">
-        <v>30.15918282635883</v>
+        <v>13.39075194341941</v>
       </c>
       <c r="I16">
-        <v>49.52315443804433</v>
+        <v>15.67986836030614</v>
       </c>
       <c r="J16">
-        <v>44.273846065495697</v>
+        <v>13.94913163587916</v>
       </c>
       <c r="K16">
-        <v>5.2493083725486258</v>
+        <v>1.7307367244269789</v>
       </c>
       <c r="L16">
-        <v>4.6337471416505336</v>
+        <v>7.0298209460239356</v>
       </c>
       <c r="M16">
-        <v>47.330001831054688</v>
+        <v>14.64999961853027</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O16" t="s">
         <v>19</v>
@@ -1840,41 +1840,41 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>122</v>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>601020</v>
+        <v>501010</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="F17">
-        <v>12.789999961853029</v>
+        <v>3.3199999332427979</v>
       </c>
       <c r="G17">
-        <v>15.060000419616699</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="H17" s="2">
-        <v>17.74824444514536</v>
+        <v>138.85542131903071</v>
       </c>
       <c r="I17">
-        <v>15.80006403354972</v>
+        <v>9.3575410212958747</v>
       </c>
       <c r="J17">
-        <v>14.68893590541512</v>
+        <v>6.7674588833366922</v>
       </c>
       <c r="K17">
-        <v>1.1111281281346019</v>
+        <v>2.590082137959183</v>
       </c>
       <c r="L17">
-        <v>4.6361830092341894</v>
+        <v>14.25569597963193</v>
       </c>
       <c r="M17">
-        <v>15.10000038146973</v>
+        <v>8.1899995803833008</v>
       </c>
       <c r="N17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="O17" t="s">
         <v>19</v>
@@ -1888,40 +1888,40 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="D18">
-        <v>521010</v>
+        <v>541010</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="F18">
-        <v>77.510002136230469</v>
+        <v>51.75</v>
       </c>
       <c r="G18">
-        <v>85.30999755859375</v>
+        <v>59.319999694824219</v>
       </c>
       <c r="H18" s="2">
-        <v>10.06321146612037</v>
+        <v>14.62801873395985</v>
       </c>
       <c r="I18">
-        <v>90.542473818361088</v>
+        <v>63.70576391288261</v>
       </c>
       <c r="J18">
-        <v>84.41552483886548</v>
+        <v>58.90823564461251</v>
       </c>
       <c r="K18">
-        <v>6.1269489794956087</v>
+        <v>4.7975282682700993</v>
       </c>
       <c r="L18">
-        <v>5.0133061197638353</v>
+        <v>6.7277020917482888</v>
       </c>
       <c r="M18">
-        <v>86.220001220703125</v>
+        <v>59.689998626708977</v>
       </c>
       <c r="N18" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
         <v>19</v>
@@ -1932,43 +1932,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>145</v>
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
       </c>
       <c r="D19">
-        <v>521020</v>
+        <v>511010</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="F19">
-        <v>26.969999313354489</v>
+        <v>45.610000610351563</v>
       </c>
       <c r="G19">
-        <v>30.940000534057621</v>
+        <v>51.450000762939453</v>
       </c>
       <c r="H19" s="2">
-        <v>14.720064226094861</v>
+        <v>12.80420976636087</v>
       </c>
       <c r="I19">
-        <v>33.341046684155224</v>
+        <v>56.644072282176161</v>
       </c>
       <c r="J19">
-        <v>29.32095282756352</v>
+        <v>47.844928038258409</v>
       </c>
       <c r="K19">
-        <v>4.0200938565916999</v>
+        <v>8.7991442439177519</v>
       </c>
       <c r="L19">
-        <v>5.176800888706353</v>
+        <v>8.0581347973668525</v>
       </c>
       <c r="M19">
-        <v>31.70000076293945</v>
+        <v>52.419998168945313</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="O19" t="s">
         <v>19</v>
@@ -1979,46 +1979,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>216</v>
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D20">
-        <v>551010</v>
+        <v>501020</v>
       </c>
       <c r="E20" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="F20">
-        <v>15.47999954223633</v>
+        <v>45.209999084472663</v>
       </c>
       <c r="G20">
-        <v>17.10000038146973</v>
+        <v>51.919998168945313</v>
       </c>
       <c r="H20" s="2">
-        <v>10.465122009941391</v>
+        <v>14.8418474239191</v>
       </c>
       <c r="I20">
-        <v>18.004580094279859</v>
+        <v>57.528120668916117</v>
       </c>
       <c r="J20">
-        <v>16.761419890461351</v>
+        <v>50.447879926176647</v>
       </c>
       <c r="K20">
-        <v>1.243160203818505</v>
+        <v>7.0802407427394627</v>
       </c>
       <c r="L20">
-        <v>5.228401239138913</v>
+        <v>6.553285572244115</v>
       </c>
       <c r="M20">
-        <v>17.110000610351559</v>
+        <v>53.990001678466797</v>
       </c>
       <c r="N20" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -2026,43 +2026,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D21">
-        <v>601020</v>
+        <v>501030</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F21">
-        <v>105.0899963378906</v>
+        <v>21.329999923706051</v>
       </c>
       <c r="G21">
-        <v>117.1699981689453</v>
+        <v>25.64999961853027</v>
       </c>
       <c r="H21" s="2">
-        <v>11.49491126844695</v>
+        <v>20.253163198669281</v>
       </c>
       <c r="I21">
-        <v>124.3255284035482</v>
+        <v>29.02096007297456</v>
       </c>
       <c r="J21">
-        <v>115.31647141334641</v>
+        <v>24.826040049095749</v>
       </c>
       <c r="K21">
-        <v>9.009056990201799</v>
+        <v>4.1949200238788151</v>
       </c>
       <c r="L21">
-        <v>5.2892331263928893</v>
+        <v>10.89400071979043</v>
       </c>
       <c r="M21">
-        <v>118.0800018310547</v>
+        <v>26.170000076293949</v>
       </c>
       <c r="N21" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="O21" t="s">
         <v>19</v>
@@ -2076,40 +2076,40 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D22">
-        <v>551010</v>
+        <v>601020</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F22">
-        <v>98.919998168945313</v>
+        <v>12.789999961853029</v>
       </c>
       <c r="G22">
-        <v>118.2900009155273</v>
+        <v>15.060000419616699</v>
       </c>
       <c r="H22" s="2">
-        <v>19.58148312285655</v>
+        <v>17.74824444514536</v>
       </c>
       <c r="I22">
-        <v>126.1496953555897</v>
+        <v>15.80006403354972</v>
       </c>
       <c r="J22">
-        <v>114.86930565149039</v>
+        <v>14.68893590541512</v>
       </c>
       <c r="K22">
-        <v>11.28038970409926</v>
+        <v>1.1111281281346019</v>
       </c>
       <c r="L22">
-        <v>5.3970196193669038</v>
+        <v>4.6361830092341894</v>
       </c>
       <c r="M22">
-        <v>119.69000244140619</v>
+        <v>15.10000038146973</v>
       </c>
       <c r="N22" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O22" t="s">
         <v>19</v>
@@ -2123,43 +2123,43 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="D23">
-        <v>601020</v>
+        <v>551010</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="F23">
-        <v>42.380001068115227</v>
+        <v>98.760002136230469</v>
       </c>
       <c r="G23">
-        <v>47.430000305175781</v>
+        <v>113.86000061035161</v>
       </c>
       <c r="H23" s="2">
-        <v>11.91599601176021</v>
+        <v>15.289589051741819</v>
       </c>
       <c r="I23">
-        <v>50.567650512699252</v>
+        <v>122.27725097615161</v>
       </c>
       <c r="J23">
-        <v>46.901349349971653</v>
+        <v>113.5737477115925</v>
       </c>
       <c r="K23">
-        <v>3.6663011627276059</v>
+        <v>8.7035032645590604</v>
       </c>
       <c r="L23">
-        <v>5.481126327205013</v>
+        <v>6.2910726730074513</v>
       </c>
       <c r="M23">
-        <v>47.939998626708977</v>
+        <v>115.0400009155273</v>
       </c>
       <c r="N23" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="O23" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -2170,40 +2170,40 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="D24">
-        <v>601020</v>
+        <v>501020</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="F24">
-        <v>14.090000152587891</v>
+        <v>24.120000839233398</v>
       </c>
       <c r="G24">
-        <v>15.94999980926514</v>
+        <v>30.139999389648441</v>
       </c>
       <c r="H24" s="2">
-        <v>13.200849088249459</v>
+        <v>24.958533751885099</v>
       </c>
       <c r="I24">
-        <v>16.891241025971421</v>
+        <v>34.509604747089277</v>
       </c>
       <c r="J24">
-        <v>15.826759481383309</v>
+        <v>29.649394695964929</v>
       </c>
       <c r="K24">
-        <v>1.0644815445881119</v>
+        <v>4.8602100511243513</v>
       </c>
       <c r="L24">
-        <v>5.5043147063785911</v>
+        <v>12.59251281107872</v>
       </c>
       <c r="M24">
-        <v>16.010000228881839</v>
+        <v>30.64999961853027</v>
       </c>
       <c r="N24" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="O24" t="s">
         <v>19</v>
@@ -2216,44 +2216,44 @@
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" t="s">
-        <v>111</v>
+      <c r="C25" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="D25">
-        <v>601020</v>
+        <v>534030</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="F25">
-        <v>11.329999923706049</v>
+        <v>92.94000244140625</v>
       </c>
       <c r="G25">
-        <v>13.44999980926514</v>
+        <v>103.1699981689453</v>
       </c>
       <c r="H25" s="2">
-        <v>18.71138481760579</v>
+        <v>11.007096469562221</v>
       </c>
       <c r="I25">
-        <v>14.438343851829901</v>
+        <v>106.9618710014351</v>
       </c>
       <c r="J25">
-        <v>13.408656079505549</v>
+        <v>101.339127686309</v>
       </c>
       <c r="K25">
-        <v>1.029687772324358</v>
+        <v>5.6227433151260584</v>
       </c>
       <c r="L25">
-        <v>5.6206567026169569</v>
+        <v>2.0141846047191452</v>
       </c>
       <c r="M25">
-        <v>13.670000076293951</v>
+        <v>104.84999847412109</v>
       </c>
       <c r="N25" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -2261,46 +2261,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D26">
-        <v>601020</v>
+        <v>572010</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F26">
-        <v>17.090000152587891</v>
+        <v>96.94000244140625</v>
       </c>
       <c r="G26">
-        <v>19.10000038146973</v>
+        <v>106.7099990844727</v>
       </c>
       <c r="H26" s="2">
-        <v>11.761265131278931</v>
+        <v>10.078395292976939</v>
       </c>
       <c r="I26">
-        <v>20.456440987391758</v>
+        <v>119.1215161570483</v>
       </c>
       <c r="J26">
-        <v>18.88855927963705</v>
+        <v>105.69848277483651</v>
       </c>
       <c r="K26">
-        <v>1.5678817077547149</v>
+        <v>13.4230333822118</v>
       </c>
       <c r="L26">
-        <v>5.6634315210400654</v>
+        <v>9.7186299087067898</v>
       </c>
       <c r="M26">
-        <v>19.360000610351559</v>
+        <v>108.5699996948242</v>
       </c>
       <c r="N26" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="O26" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -2311,43 +2311,43 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="D27">
-        <v>601020</v>
+        <v>561020</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="F27">
-        <v>18.89999961853027</v>
+        <v>13.069999694824221</v>
       </c>
       <c r="G27">
-        <v>21.629999160766602</v>
+        <v>15.439999580383301</v>
       </c>
       <c r="H27" s="2">
-        <v>14.44444231395503</v>
+        <v>18.133128851545521</v>
       </c>
       <c r="I27">
-        <v>23.245117784552271</v>
+        <v>16.745244531170549</v>
       </c>
       <c r="J27">
-        <v>21.52088220018895</v>
+        <v>14.810755320056259</v>
       </c>
       <c r="K27">
-        <v>1.724235584363321</v>
+        <v>1.9344892111142831</v>
       </c>
       <c r="L27">
-        <v>5.996887647402815</v>
+        <v>6.3865614655022904</v>
       </c>
       <c r="M27">
-        <v>21.930000305175781</v>
+        <v>15.739999771118161</v>
       </c>
       <c r="N27" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2358,40 +2358,40 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D28">
-        <v>511010</v>
+        <v>551010</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F28">
-        <v>26.370000839233398</v>
+        <v>98.919998168945313</v>
       </c>
       <c r="G28">
-        <v>32.459999084472663</v>
+        <v>118.2900009155273</v>
       </c>
       <c r="H28" s="2">
-        <v>23.094418094134191</v>
+        <v>19.58148312285655</v>
       </c>
       <c r="I28">
-        <v>34.729170640451301</v>
+        <v>126.1496953555897</v>
       </c>
       <c r="J28">
-        <v>31.86582905437292</v>
+        <v>114.86930565149039</v>
       </c>
       <c r="K28">
-        <v>2.8633415860783771</v>
+        <v>11.28038970409926</v>
       </c>
       <c r="L28">
-        <v>6.0109048223722201</v>
+        <v>5.3970196193669038</v>
       </c>
       <c r="M28">
-        <v>32.759998321533203</v>
+        <v>119.69000244140619</v>
       </c>
       <c r="N28" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="O28" t="s">
         <v>19</v>
@@ -2404,44 +2404,44 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
-        <v>37</v>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>531010</v>
+        <v>571020</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F29">
-        <v>56.740001678466797</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="G29">
-        <v>83.870002746582031</v>
+        <v>9.2200002670288086</v>
       </c>
       <c r="H29" s="2">
-        <v>47.8145933478378</v>
+        <v>51.894563530222548</v>
       </c>
       <c r="I29">
-        <v>92.090604947084969</v>
+        <v>10.6406959594088</v>
       </c>
       <c r="J29">
-        <v>83.512394930844707</v>
+        <v>9.2703040062589235</v>
       </c>
       <c r="K29">
-        <v>8.5782100162402628</v>
+        <v>1.3703919531498769</v>
       </c>
       <c r="L29">
-        <v>6.0585085858524437</v>
+        <v>11.304346154363779</v>
       </c>
       <c r="M29">
-        <v>86.830001831054688</v>
+        <v>9.5600004196166992</v>
       </c>
       <c r="N29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O29" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2452,40 +2452,40 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>501020</v>
+        <v>501030</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="F30">
-        <v>53.680000305175781</v>
+        <v>6.6500000953674316</v>
       </c>
       <c r="G30">
-        <v>60.419998168945313</v>
+        <v>9.1099996566772461</v>
       </c>
       <c r="H30" s="2">
-        <v>12.55588268526828</v>
+        <v>36.992474075654748</v>
       </c>
       <c r="I30">
-        <v>65.082823111292583</v>
+        <v>9.7778325367540102</v>
       </c>
       <c r="J30">
-        <v>59.137175820592176</v>
+        <v>8.8441672992140088</v>
       </c>
       <c r="K30">
-        <v>5.945647290700407</v>
+        <v>0.93366523754000141</v>
       </c>
       <c r="L30">
-        <v>6.2229845357309426</v>
+        <v>6.6284891537942094</v>
       </c>
       <c r="M30">
-        <v>61.270000457763672</v>
+        <v>9.1700000762939453</v>
       </c>
       <c r="N30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O30" t="s">
         <v>19</v>
@@ -2499,40 +2499,40 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D31">
-        <v>551010</v>
+        <v>501020</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F31">
-        <v>98.760002136230469</v>
+        <v>72.300003051757813</v>
       </c>
       <c r="G31">
-        <v>113.86000061035161</v>
+        <v>83.44000244140625</v>
       </c>
       <c r="H31" s="2">
-        <v>15.289589051741819</v>
+        <v>15.40802063545361</v>
       </c>
       <c r="I31">
-        <v>122.27725097615161</v>
+        <v>89.248069642703214</v>
       </c>
       <c r="J31">
-        <v>113.5737477115925</v>
+        <v>80.681928373654202</v>
       </c>
       <c r="K31">
-        <v>8.7035032645590604</v>
+        <v>8.5661412690490124</v>
       </c>
       <c r="L31">
-        <v>6.2910726730074513</v>
+        <v>3.7888962203433412</v>
       </c>
       <c r="M31">
-        <v>115.0400009155273</v>
+        <v>85.989997863769531</v>
       </c>
       <c r="N31" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O31" t="s">
         <v>19</v>
@@ -2543,43 +2543,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>562020</v>
+        <v>501030</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F32">
-        <v>31.29999923706055</v>
+        <v>7.809999942779541</v>
       </c>
       <c r="G32">
-        <v>40.819999694824219</v>
+        <v>10.63000011444092</v>
       </c>
       <c r="H32" s="2">
-        <v>30.415337667138289</v>
+        <v>36.10755687992684</v>
       </c>
       <c r="I32">
-        <v>45.174068224788108</v>
+        <v>11.39040479254397</v>
       </c>
       <c r="J32">
-        <v>39.139932477116183</v>
+        <v>10.349595264676489</v>
       </c>
       <c r="K32">
-        <v>6.0341357476719253</v>
+        <v>1.040809527867474</v>
       </c>
       <c r="L32">
-        <v>6.3169367858169574</v>
+        <v>6.4523831363156452</v>
       </c>
       <c r="M32">
-        <v>42.490001678466797</v>
+        <v>10.69999980926514</v>
       </c>
       <c r="N32" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O32" t="s">
         <v>19</v>
@@ -2590,40 +2590,40 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <v>501030</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F33">
-        <v>9.1400003433227539</v>
+        <v>3.5399999618530269</v>
       </c>
       <c r="G33">
-        <v>11.35999965667725</v>
+        <v>4.7600002288818359</v>
       </c>
       <c r="H33" s="2">
-        <v>24.288831837695898</v>
+        <v>34.463284750720582</v>
       </c>
       <c r="I33">
-        <v>12.456410731692189</v>
+        <v>5.4341143245164973</v>
       </c>
       <c r="J33">
-        <v>10.813589249234321</v>
+        <v>4.5588856583173643</v>
       </c>
       <c r="K33">
-        <v>1.642821482457876</v>
+        <v>0.87522866619913309</v>
       </c>
       <c r="L33">
-        <v>6.3741305816710874</v>
+        <v>10.002312987300989</v>
       </c>
       <c r="M33">
-        <v>11.710000038146971</v>
+        <v>4.940000057220459</v>
       </c>
       <c r="N33" t="s">
         <v>41</v>
@@ -2637,43 +2637,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="D34">
-        <v>561020</v>
+        <v>534030</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="F34">
-        <v>13.069999694824221</v>
+        <v>27.840000152587891</v>
       </c>
       <c r="G34">
-        <v>15.439999580383301</v>
+        <v>31.870000839233398</v>
       </c>
       <c r="H34" s="2">
-        <v>18.133128851545521</v>
+        <v>14.47557709970377</v>
       </c>
       <c r="I34">
-        <v>16.745244531170549</v>
+        <v>38.958138990750662</v>
       </c>
       <c r="J34">
-        <v>14.810755320056259</v>
+        <v>31.63286118472541</v>
       </c>
       <c r="K34">
-        <v>1.9344892111142831</v>
+        <v>7.3252778060252517</v>
       </c>
       <c r="L34">
-        <v>6.3865614655022904</v>
+        <v>14.65020457792127</v>
       </c>
       <c r="M34">
-        <v>15.739999771118161</v>
+        <v>33.979999542236328</v>
       </c>
       <c r="N34" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="O34" t="s">
         <v>36</v>
@@ -2684,46 +2684,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="D35">
-        <v>501030</v>
+        <v>551020</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="F35">
-        <v>7.809999942779541</v>
+        <v>42.340000152587891</v>
       </c>
       <c r="G35">
-        <v>10.63000011444092</v>
+        <v>48.5</v>
       </c>
       <c r="H35" s="2">
-        <v>36.10755687992684</v>
+        <v>14.54888952577296</v>
       </c>
       <c r="I35">
-        <v>11.39040479254397</v>
+        <v>55.817197631365403</v>
       </c>
       <c r="J35">
-        <v>10.349595264676489</v>
+        <v>48.766802383893392</v>
       </c>
       <c r="K35">
-        <v>1.040809527867474</v>
+        <v>7.0503952474720109</v>
       </c>
       <c r="L35">
-        <v>6.4523831363156452</v>
+        <v>11.634395262730809</v>
       </c>
       <c r="M35">
-        <v>10.69999980926514</v>
+        <v>50</v>
       </c>
       <c r="N35" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="O35" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -2731,43 +2731,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="D36">
-        <v>501030</v>
+        <v>601020</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="F36">
-        <v>6.9699997901916504</v>
+        <v>105.0899963378906</v>
       </c>
       <c r="G36">
-        <v>9.9399995803833008</v>
+        <v>117.1699981689453</v>
       </c>
       <c r="H36" s="2">
-        <v>42.611189090293863</v>
+        <v>11.49491126844695</v>
       </c>
       <c r="I36">
-        <v>10.92606176840618</v>
+        <v>124.3255284035482</v>
       </c>
       <c r="J36">
-        <v>9.7619380523030514</v>
+        <v>115.31647141334641</v>
       </c>
       <c r="K36">
-        <v>1.164123716103127</v>
+        <v>9.009056990201799</v>
       </c>
       <c r="L36">
-        <v>6.4918277257868233</v>
+        <v>5.2892331263928893</v>
       </c>
       <c r="M36">
-        <v>10.260000228881839</v>
+        <v>118.0800018310547</v>
       </c>
       <c r="N36" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O36" t="s">
         <v>19</v>
@@ -2778,43 +2778,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>143</v>
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
       </c>
       <c r="D37">
-        <v>501020</v>
+        <v>501030</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="F37">
-        <v>45.209999084472663</v>
+        <v>7.6500000953674316</v>
       </c>
       <c r="G37">
-        <v>51.919998168945313</v>
+        <v>9.0500001907348633</v>
       </c>
       <c r="H37" s="2">
-        <v>14.8418474239191</v>
+        <v>18.30065461326231</v>
       </c>
       <c r="I37">
-        <v>57.528120668916117</v>
+        <v>10.762234205116419</v>
       </c>
       <c r="J37">
-        <v>50.447879926176647</v>
+        <v>8.4787657796247959</v>
       </c>
       <c r="K37">
-        <v>7.0802407427394627</v>
+        <v>2.2834684254916202</v>
       </c>
       <c r="L37">
-        <v>6.553285572244115</v>
+        <v>14.98113888753022</v>
       </c>
       <c r="M37">
-        <v>53.990001678466797</v>
+        <v>9.3599996566772461</v>
       </c>
       <c r="N37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O37" t="s">
         <v>19</v>
@@ -2827,41 +2827,41 @@
       <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="C38" t="s">
-        <v>167</v>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>501020</v>
+        <v>512010</v>
       </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="F38">
-        <v>21.139999389648441</v>
+        <v>10.63000011444092</v>
       </c>
       <c r="G38">
-        <v>23.969999313354489</v>
+        <v>17.489999771118161</v>
       </c>
       <c r="H38" s="2">
-        <v>13.386944207253929</v>
+        <v>64.53433285817087</v>
       </c>
       <c r="I38">
-        <v>25.998932949843539</v>
+        <v>19.720794296437361</v>
       </c>
       <c r="J38">
-        <v>23.381066973862509</v>
+        <v>16.4922056196393</v>
       </c>
       <c r="K38">
-        <v>2.6178659759810259</v>
+        <v>3.2285886767980538</v>
       </c>
       <c r="L38">
-        <v>6.5966937288155991</v>
+        <v>11.98633511031807</v>
       </c>
       <c r="M38">
-        <v>24.389999389648441</v>
+        <v>17.610000610351559</v>
       </c>
       <c r="N38" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="O38" t="s">
         <v>19</v>
@@ -2872,46 +2872,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="D39">
-        <v>501030</v>
+        <v>562020</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="F39">
-        <v>23.770000457763668</v>
+        <v>32.880001068115227</v>
       </c>
       <c r="G39">
-        <v>26.54999923706055</v>
+        <v>40.830001831054688</v>
       </c>
       <c r="H39" s="2">
-        <v>11.695409027175179</v>
+        <v>24.17883365170816</v>
       </c>
       <c r="I39">
-        <v>28.573394632768519</v>
+        <v>44.843652429785912</v>
       </c>
       <c r="J39">
-        <v>25.7466050620557</v>
+        <v>40.284347448143777</v>
       </c>
       <c r="K39">
-        <v>2.8267895707128261</v>
+        <v>4.5593049816421276</v>
       </c>
       <c r="L39">
-        <v>6.6171471872865748</v>
+        <v>7.9269633049417294</v>
       </c>
       <c r="M39">
-        <v>26.79999923706055</v>
+        <v>41.549999237060547</v>
       </c>
       <c r="N39" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O39" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2922,43 +2922,43 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="D40">
-        <v>501030</v>
+        <v>553010</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F40">
-        <v>6.6500000953674316</v>
+        <v>3.5099999904632568</v>
       </c>
       <c r="G40">
-        <v>9.1099996566772461</v>
+        <v>3.9000000953674321</v>
       </c>
       <c r="H40" s="2">
-        <v>36.992474075654748</v>
+        <v>11.11111413002317</v>
       </c>
       <c r="I40">
-        <v>9.7778325367540102</v>
+        <v>4.3014366894862217</v>
       </c>
       <c r="J40">
-        <v>8.8441672992140088</v>
+        <v>3.8725632637837371</v>
       </c>
       <c r="K40">
-        <v>0.93366523754000141</v>
+        <v>0.42887342570248421</v>
       </c>
       <c r="L40">
-        <v>6.6284891537942094</v>
+        <v>8.8971300648107263</v>
       </c>
       <c r="M40">
-        <v>9.1700000762939453</v>
+        <v>3.9500000476837158</v>
       </c>
       <c r="N40" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="O40" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2969,40 +2969,40 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D41">
-        <v>541010</v>
+        <v>501020</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="F41">
-        <v>51.75</v>
+        <v>71.480003356933594</v>
       </c>
       <c r="G41">
-        <v>59.319999694824219</v>
+        <v>87.319999694824219</v>
       </c>
       <c r="H41" s="2">
-        <v>14.62801873395985</v>
+        <v>22.16003860379525</v>
       </c>
       <c r="I41">
-        <v>63.70576391288261</v>
+        <v>91.656969050848502</v>
       </c>
       <c r="J41">
-        <v>58.90823564461251</v>
+        <v>85.071030827081174</v>
       </c>
       <c r="K41">
-        <v>4.7975282682700993</v>
+        <v>6.5859382237673287</v>
       </c>
       <c r="L41">
-        <v>6.7277020917482888</v>
+        <v>3.1128019801992348</v>
       </c>
       <c r="M41">
-        <v>59.689998626708977</v>
+        <v>88.889999389648438</v>
       </c>
       <c r="N41" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="O41" t="s">
         <v>19</v>
@@ -3013,43 +3013,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="D42">
-        <v>601020</v>
+        <v>501030</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="F42">
-        <v>18.54000091552734</v>
+        <v>5.0399999618530273</v>
       </c>
       <c r="G42">
-        <v>24.059999465942379</v>
+        <v>5.7100000381469727</v>
       </c>
       <c r="H42" s="2">
-        <v>29.773453494233731</v>
+        <v>13.293652408037129</v>
       </c>
       <c r="I42">
-        <v>25.71415845347159</v>
+        <v>6.5617412782575792</v>
       </c>
       <c r="J42">
-        <v>23.71284159230478</v>
+        <v>5.6222587370012098</v>
       </c>
       <c r="K42">
-        <v>2.001316861166806</v>
+        <v>0.93948254125636943</v>
       </c>
       <c r="L42">
-        <v>6.7863726534182884</v>
+        <v>11.97510458625743</v>
       </c>
       <c r="M42">
-        <v>24.079999923706051</v>
+        <v>5.8600001335144043</v>
       </c>
       <c r="N42" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="O42" t="s">
         <v>36</v>
@@ -3063,40 +3063,40 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D43">
-        <v>501030</v>
+        <v>522030</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F43">
-        <v>12.77000045776367</v>
+        <v>17.70999908447266</v>
       </c>
       <c r="G43">
-        <v>14.47999954223633</v>
+        <v>20.420000076293949</v>
       </c>
       <c r="H43" s="2">
-        <v>13.39075194341941</v>
+        <v>15.30209560652829</v>
       </c>
       <c r="I43">
-        <v>15.67986836030614</v>
+        <v>24.010481551317799</v>
       </c>
       <c r="J43">
-        <v>13.94913163587916</v>
+        <v>19.628518387647041</v>
       </c>
       <c r="K43">
-        <v>1.7307367244269789</v>
+        <v>4.3819631636707612</v>
       </c>
       <c r="L43">
-        <v>7.0298209460239356</v>
+        <v>14.49920046505207</v>
       </c>
       <c r="M43">
-        <v>14.64999961853027</v>
+        <v>20.969999313354489</v>
       </c>
       <c r="N43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O43" t="s">
         <v>19</v>
@@ -3110,43 +3110,43 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D44">
-        <v>511010</v>
+        <v>551010</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F44">
-        <v>153.57000732421881</v>
+        <v>15.47999954223633</v>
       </c>
       <c r="G44">
-        <v>169.77000427246091</v>
+        <v>17.10000038146973</v>
       </c>
       <c r="H44" s="2">
-        <v>10.54893284861318</v>
+        <v>10.465122009941391</v>
       </c>
       <c r="I44">
-        <v>182.39847051632179</v>
+        <v>18.004580094279859</v>
       </c>
       <c r="J44">
-        <v>164.14853265750631</v>
+        <v>16.761419890461351</v>
       </c>
       <c r="K44">
-        <v>18.249937858815489</v>
+        <v>1.243160203818505</v>
       </c>
       <c r="L44">
-        <v>7.2995262204734273</v>
+        <v>5.228401239138913</v>
       </c>
       <c r="M44">
-        <v>169.99000549316409</v>
+        <v>17.110000610351559</v>
       </c>
       <c r="N44" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="O44" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -3156,41 +3156,41 @@
       <c r="B45" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>224</v>
+      <c r="C45" t="s">
+        <v>163</v>
       </c>
       <c r="D45">
-        <v>562020</v>
+        <v>561020</v>
       </c>
       <c r="E45" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="F45">
-        <v>4.1999998092651367</v>
+        <v>1.7400000095367429</v>
       </c>
       <c r="G45">
-        <v>4.619999885559082</v>
+        <v>1.9800000190734861</v>
       </c>
       <c r="H45" s="2">
-        <v>10.00000227065323</v>
+        <v>13.793103920766111</v>
       </c>
       <c r="I45">
-        <v>5.1962548022163659</v>
+        <v>2.2280804164177832</v>
       </c>
       <c r="J45">
-        <v>4.5437452550040938</v>
+        <v>1.91691956450873</v>
       </c>
       <c r="K45">
-        <v>0.65250954721227217</v>
+        <v>0.31116085190905268</v>
       </c>
       <c r="L45">
-        <v>7.3606330247322456</v>
+        <v>11.40402082088916</v>
       </c>
       <c r="M45">
-        <v>4.8400001525878906</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O45" t="s">
         <v>36</v>
@@ -3201,46 +3201,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D46">
-        <v>551010</v>
+        <v>501020</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F46">
-        <v>27.70999908447266</v>
+        <v>25.020000457763668</v>
       </c>
       <c r="G46">
-        <v>36.319999694824219</v>
+        <v>30.39999961853027</v>
       </c>
       <c r="H46" s="2">
-        <v>31.071818458399701</v>
+        <v>21.502794014127179</v>
       </c>
       <c r="I46">
-        <v>39.289820458553052</v>
+        <v>35.581932142011468</v>
       </c>
       <c r="J46">
-        <v>35.196178839542661</v>
+        <v>29.86106750703637</v>
       </c>
       <c r="K46">
-        <v>4.0936416190103841</v>
+        <v>5.7208646349751007</v>
       </c>
       <c r="L46">
-        <v>7.8501787796333229</v>
+        <v>13.68029715438758</v>
       </c>
       <c r="M46">
-        <v>36.430000305175781</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="N46" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O46" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -3248,46 +3248,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>173</v>
       </c>
       <c r="D47">
-        <v>501030</v>
+        <v>601020</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="F47">
-        <v>9.4600000381469727</v>
+        <v>37.490001678466797</v>
       </c>
       <c r="G47">
-        <v>11.939999580383301</v>
+        <v>42.319999694824219</v>
       </c>
       <c r="H47" s="2">
-        <v>26.21563987564328</v>
+        <v>12.88342971489285</v>
       </c>
       <c r="I47">
-        <v>13.0772507462987</v>
+        <v>47.846768254126467</v>
       </c>
       <c r="J47">
-        <v>11.33274929184827</v>
+        <v>41.570231181298333</v>
       </c>
       <c r="K47">
-        <v>1.7445014544504249</v>
+        <v>6.2765370728281482</v>
       </c>
       <c r="L47">
-        <v>7.8981094866195187</v>
+        <v>12.26365427787815</v>
       </c>
       <c r="M47">
-        <v>12.11999988555908</v>
+        <v>42.619998931884773</v>
       </c>
       <c r="N47" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O47" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -3297,44 +3297,44 @@
       <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="C48" t="s">
-        <v>89</v>
+      <c r="C48" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D48">
         <v>562020</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F48">
-        <v>32.880001068115227</v>
+        <v>31.29999923706055</v>
       </c>
       <c r="G48">
-        <v>40.830001831054688</v>
+        <v>40.819999694824219</v>
       </c>
       <c r="H48" s="2">
-        <v>24.17883365170816</v>
+        <v>30.415337667138289</v>
       </c>
       <c r="I48">
-        <v>44.843652429785912</v>
+        <v>45.174068224788108</v>
       </c>
       <c r="J48">
-        <v>40.284347448143777</v>
+        <v>39.139932477116183</v>
       </c>
       <c r="K48">
-        <v>4.5593049816421276</v>
+        <v>6.0341357476719253</v>
       </c>
       <c r="L48">
-        <v>7.9269633049417294</v>
+        <v>6.3169367858169574</v>
       </c>
       <c r="M48">
-        <v>41.549999237060547</v>
+        <v>42.490001678466797</v>
       </c>
       <c r="N48" t="s">
         <v>29</v>
       </c>
       <c r="O48" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -3345,40 +3345,40 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="D49">
-        <v>511010</v>
+        <v>534030</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="F49">
-        <v>45.610000610351563</v>
+        <v>15.22000026702881</v>
       </c>
       <c r="G49">
-        <v>51.450000762939453</v>
+        <v>17.54999923706055</v>
       </c>
       <c r="H49" s="2">
-        <v>12.80420976636087</v>
+        <v>15.308797169203951</v>
       </c>
       <c r="I49">
-        <v>56.644072282176161</v>
+        <v>18.307329356166299</v>
       </c>
       <c r="J49">
-        <v>47.844928038258409</v>
+        <v>17.452670300510949</v>
       </c>
       <c r="K49">
-        <v>8.7991442439177519</v>
+        <v>0.85465905565534683</v>
       </c>
       <c r="L49">
-        <v>8.0581347973668525</v>
+        <v>2.6771140465659951</v>
       </c>
       <c r="M49">
-        <v>52.419998168945313</v>
+        <v>17.829999923706051</v>
       </c>
       <c r="N49" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="O49" t="s">
         <v>19</v>
@@ -3391,44 +3391,44 @@
       <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" t="s">
-        <v>183</v>
+      <c r="C50" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>601020</v>
+        <v>522030</v>
       </c>
       <c r="E50" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="F50">
-        <v>15.86999988555908</v>
+        <v>16.870000839233398</v>
       </c>
       <c r="G50">
-        <v>17.819999694824219</v>
+        <v>25.989999771118161</v>
       </c>
       <c r="H50" s="2">
-        <v>12.28733348032056</v>
+        <v>54.060453338419599</v>
       </c>
       <c r="I50">
-        <v>19.558121656440552</v>
+        <v>27.433196430155441</v>
       </c>
       <c r="J50">
-        <v>17.379878259636111</v>
+        <v>25.132803173116049</v>
       </c>
       <c r="K50">
-        <v>2.178243396804433</v>
+        <v>2.3003932570393961</v>
       </c>
       <c r="L50">
-        <v>8.1754520960833421</v>
+        <v>3.5996861948533549</v>
       </c>
       <c r="M50">
-        <v>18.079999923706051</v>
+        <v>26.479999542236332</v>
       </c>
       <c r="N50" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="O50" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -3438,41 +3438,41 @@
       <c r="B51" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>51</v>
+      <c r="C51" t="s">
+        <v>159</v>
       </c>
       <c r="D51">
-        <v>501030</v>
+        <v>601020</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="F51">
-        <v>11.61999988555908</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="G51">
-        <v>15.569999694824221</v>
+        <v>21.629999160766602</v>
       </c>
       <c r="H51" s="2">
-        <v>33.993114011765662</v>
+        <v>14.44444231395503</v>
       </c>
       <c r="I51">
-        <v>17.92135988126071</v>
+        <v>23.245117784552271</v>
       </c>
       <c r="J51">
-        <v>15.36063989748685</v>
+        <v>21.52088220018895</v>
       </c>
       <c r="K51">
-        <v>2.560719983773863</v>
+        <v>1.724235584363321</v>
       </c>
       <c r="L51">
-        <v>8.2207757199396685</v>
+        <v>5.996887647402815</v>
       </c>
       <c r="M51">
-        <v>16.559999465942379</v>
+        <v>21.930000305175781</v>
       </c>
       <c r="N51" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O51" t="s">
         <v>19</v>
@@ -3483,43 +3483,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="D52">
-        <v>562020</v>
+        <v>532020</v>
       </c>
       <c r="E52" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="F52">
-        <v>10.11999988555908</v>
+        <v>50.430000305175781</v>
       </c>
       <c r="G52">
-        <v>15.810000419616699</v>
+        <v>56.409999847412109</v>
       </c>
       <c r="H52" s="2">
-        <v>56.22530235575465</v>
+        <v>11.858020039755161</v>
       </c>
       <c r="I52">
-        <v>17.62348536371605</v>
+        <v>65.69448312012085</v>
       </c>
       <c r="J52">
-        <v>15.315514575248789</v>
+        <v>53.440517490230732</v>
       </c>
       <c r="K52">
-        <v>2.3079707884672662</v>
+        <v>12.25396562989012</v>
       </c>
       <c r="L52">
-        <v>8.3188990035125006</v>
+        <v>13.579673144557439</v>
       </c>
       <c r="M52">
-        <v>16.270000457763668</v>
+        <v>57.840000152587891</v>
       </c>
       <c r="N52" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
       <c r="O52" t="s">
         <v>19</v>
@@ -3533,43 +3533,43 @@
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D53">
-        <v>501020</v>
+        <v>601020</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F53">
-        <v>17.860000610351559</v>
+        <v>18.54000091552734</v>
       </c>
       <c r="G53">
-        <v>21.629999160766602</v>
+        <v>24.059999465942379</v>
       </c>
       <c r="H53" s="2">
-        <v>21.108613782633181</v>
+        <v>29.773453494233731</v>
       </c>
       <c r="I53">
-        <v>23.791415701815779</v>
+        <v>25.71415845347159</v>
       </c>
       <c r="J53">
-        <v>20.592584313443009</v>
+        <v>23.71284159230478</v>
       </c>
       <c r="K53">
-        <v>3.198831388372767</v>
+        <v>2.001316861166806</v>
       </c>
       <c r="L53">
-        <v>8.537480013723787</v>
+        <v>6.7863726534182884</v>
       </c>
       <c r="M53">
-        <v>21.920000076293949</v>
+        <v>24.079999923706051</v>
       </c>
       <c r="N53" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="O53" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -3579,41 +3579,41 @@
       <c r="B54" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>83</v>
+      <c r="C54" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D54">
-        <v>601020</v>
+        <v>501030</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F54">
-        <v>18.79999923706055</v>
+        <v>11.38000011444092</v>
       </c>
       <c r="G54">
-        <v>23.409999847412109</v>
+        <v>14.159999847412109</v>
       </c>
       <c r="H54" s="2">
-        <v>24.521280837415361</v>
+        <v>24.428819903467701</v>
       </c>
       <c r="I54">
-        <v>25.694695936891151</v>
+        <v>16.949033205752229</v>
       </c>
       <c r="J54">
-        <v>22.848303902891569</v>
+        <v>13.52996679043307</v>
       </c>
       <c r="K54">
-        <v>2.8463920339995852</v>
+        <v>3.4190664153191519</v>
       </c>
       <c r="L54">
-        <v>8.7376083345470867</v>
+        <v>12.693040217694209</v>
       </c>
       <c r="M54">
-        <v>23.629999160766602</v>
+        <v>15.039999961853029</v>
       </c>
       <c r="N54" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="O54" t="s">
         <v>19</v>
@@ -3624,43 +3624,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="D55">
-        <v>524050</v>
+        <v>512010</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="F55">
-        <v>125.5</v>
+        <v>16.79000091552734</v>
       </c>
       <c r="G55">
-        <v>139.88999938964841</v>
+        <v>20.920000076293949</v>
       </c>
       <c r="H55" s="2">
-        <v>11.466134971831419</v>
+        <v>24.597968645416749</v>
       </c>
       <c r="I55">
-        <v>154.0387268910585</v>
+        <v>24.290338372755379</v>
       </c>
       <c r="J55">
-        <v>137.3402724375548</v>
+        <v>20.055661726426749</v>
       </c>
       <c r="K55">
-        <v>16.69845445350364</v>
+        <v>4.234676646328623</v>
       </c>
       <c r="L55">
-        <v>8.8920681324682889</v>
+        <v>15.83375855089497</v>
       </c>
       <c r="M55">
-        <v>141.46000671386719</v>
+        <v>20.969999313354489</v>
       </c>
       <c r="N55" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="O55" t="s">
         <v>19</v>
@@ -3671,46 +3671,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D56">
-        <v>553010</v>
+        <v>501020</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F56">
-        <v>3.5099999904632568</v>
+        <v>3.8599998950958252</v>
       </c>
       <c r="G56">
-        <v>3.9000000953674321</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="H56" s="2">
-        <v>11.11111413002317</v>
+        <v>11.91710593438067</v>
       </c>
       <c r="I56">
-        <v>4.3014366894862217</v>
+        <v>5.343379321815469</v>
       </c>
       <c r="J56">
-        <v>3.8725632637837371</v>
+        <v>3.980620702980064</v>
       </c>
       <c r="K56">
-        <v>0.42887342570248421</v>
+        <v>1.3627586188354051</v>
       </c>
       <c r="L56">
-        <v>8.8971300648107263</v>
+        <v>19.806710226745199</v>
       </c>
       <c r="M56">
-        <v>3.9500000476837158</v>
+        <v>4.4600000381469727</v>
       </c>
       <c r="N56" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="O56" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -3721,43 +3721,43 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D57">
-        <v>533010</v>
+        <v>561020</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F57">
-        <v>8.3900003433227539</v>
+        <v>25.690000534057621</v>
       </c>
       <c r="G57">
-        <v>9.8999996185302734</v>
+        <v>30.14999961853027</v>
       </c>
       <c r="H57" s="2">
-        <v>17.997606834536839</v>
+        <v>17.360836869426951</v>
       </c>
       <c r="I57">
-        <v>11.02326169766908</v>
+        <v>33.223431963819067</v>
       </c>
       <c r="J57">
-        <v>9.41273826799865</v>
+        <v>29.952568249803971</v>
       </c>
       <c r="K57">
-        <v>1.6105234296704261</v>
+        <v>3.2708637140150998</v>
       </c>
       <c r="L57">
-        <v>8.9255120783046635</v>
+        <v>9.5398353029717633</v>
       </c>
       <c r="M57">
-        <v>10.11999988555908</v>
+        <v>30.329999923706051</v>
       </c>
       <c r="N57" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="O57" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -3768,40 +3768,40 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58">
-        <v>551010</v>
+        <v>501020</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F58">
-        <v>3.4800000190734859</v>
+        <v>53.680000305175781</v>
       </c>
       <c r="G58">
-        <v>3.910000085830688</v>
+        <v>60.419998168945313</v>
       </c>
       <c r="H58" s="2">
-        <v>12.35632368966726</v>
+        <v>12.55588268526828</v>
       </c>
       <c r="I58">
-        <v>4.3266985265322244</v>
+        <v>65.082823111292583</v>
       </c>
       <c r="J58">
-        <v>3.8283014210156892</v>
+        <v>59.137175820592176</v>
       </c>
       <c r="K58">
-        <v>0.49839710551653438</v>
+        <v>5.945647290700407</v>
       </c>
       <c r="L58">
-        <v>9.260062748808517</v>
+        <v>6.2229845357309426</v>
       </c>
       <c r="M58">
-        <v>3.9600000381469731</v>
+        <v>61.270000457763672</v>
       </c>
       <c r="N58" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O58" t="s">
         <v>19</v>
@@ -3814,44 +3814,44 @@
       <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C59" t="s">
-        <v>124</v>
+      <c r="C59" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D59">
-        <v>561020</v>
+        <v>512010</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F59">
-        <v>25.690000534057621</v>
+        <v>1.720000028610229</v>
       </c>
       <c r="G59">
-        <v>30.14999961853027</v>
+        <v>2.029999971389771</v>
       </c>
       <c r="H59" s="2">
-        <v>17.360836869426951</v>
+        <v>18.023252187386479</v>
       </c>
       <c r="I59">
-        <v>33.223431963819067</v>
+        <v>2.3502660835428149</v>
       </c>
       <c r="J59">
-        <v>29.952568249803971</v>
+        <v>1.972733918364534</v>
       </c>
       <c r="K59">
-        <v>3.2708637140150998</v>
+        <v>0.37753216517828098</v>
       </c>
       <c r="L59">
-        <v>9.5398353029717633</v>
+        <v>12.45292727569074</v>
       </c>
       <c r="M59">
-        <v>30.329999923706051</v>
+        <v>2.089999914169312</v>
       </c>
       <c r="N59" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="O59" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -3859,46 +3859,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>572010</v>
+        <v>501020</v>
       </c>
       <c r="E60" t="s">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c r="F60">
-        <v>96.94000244140625</v>
+        <v>16.739999771118161</v>
       </c>
       <c r="G60">
-        <v>106.7099990844727</v>
+        <v>23.280000686645511</v>
       </c>
       <c r="H60" s="2">
-        <v>10.078395292976939</v>
+        <v>39.06810636169142</v>
       </c>
       <c r="I60">
-        <v>119.1215161570483</v>
+        <v>25.655999269213108</v>
       </c>
       <c r="J60">
-        <v>105.69848277483651</v>
+        <v>22.576000891004171</v>
       </c>
       <c r="K60">
-        <v>13.4230333822118</v>
+        <v>3.0799983782089408</v>
       </c>
       <c r="L60">
-        <v>9.7186299087067898</v>
+        <v>4.0389271206971458</v>
       </c>
       <c r="M60">
-        <v>108.5699996948242</v>
+        <v>24.659999847412109</v>
       </c>
       <c r="N60" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="O60" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -3906,43 +3906,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" t="s">
-        <v>128</v>
+        <v>15</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D61">
-        <v>512010</v>
+        <v>501030</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="F61">
-        <v>51.25</v>
+        <v>3.6700000762939449</v>
       </c>
       <c r="G61">
-        <v>59.599998474121087</v>
+        <v>4.7600002288818359</v>
       </c>
       <c r="H61" s="2">
-        <v>16.29267994950456</v>
+        <v>29.700276019846822</v>
       </c>
       <c r="I61">
-        <v>66.852869439042635</v>
+        <v>5.9005997669799424</v>
       </c>
       <c r="J61">
-        <v>56.537131857954442</v>
+        <v>4.5664002883331687</v>
       </c>
       <c r="K61">
-        <v>10.3157375810882</v>
+        <v>1.3341994786467739</v>
       </c>
       <c r="L61">
-        <v>9.7568044763063995</v>
+        <v>15.471616689015679</v>
       </c>
       <c r="M61">
-        <v>60.909999847412109</v>
+        <v>5.1100001335144043</v>
       </c>
       <c r="N61" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O61" t="s">
         <v>19</v>
@@ -3953,46 +3953,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="D62">
-        <v>501030</v>
+        <v>601010</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="F62">
-        <v>3.5399999618530269</v>
+        <v>10.47000026702881</v>
       </c>
       <c r="G62">
-        <v>4.7600002288818359</v>
+        <v>12.010000228881839</v>
       </c>
       <c r="H62" s="2">
-        <v>34.463284750720582</v>
+        <v>14.708690760043799</v>
       </c>
       <c r="I62">
-        <v>5.4341143245164973</v>
+        <v>13.593371122244051</v>
       </c>
       <c r="J62">
-        <v>4.5588856583173643</v>
+        <v>11.89862907612021</v>
       </c>
       <c r="K62">
-        <v>0.87522866619913309</v>
+        <v>1.6947420461238349</v>
       </c>
       <c r="L62">
-        <v>10.002312987300989</v>
+        <v>12.34190655945193</v>
       </c>
       <c r="M62">
-        <v>4.940000057220459</v>
+        <v>12.10000038146973</v>
       </c>
       <c r="N62" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="O62" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -4000,40 +4000,40 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="D63">
         <v>501030</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="F63">
-        <v>21.329999923706051</v>
+        <v>13.579999923706049</v>
       </c>
       <c r="G63">
-        <v>25.64999961853027</v>
+        <v>15.319999694824221</v>
       </c>
       <c r="H63" s="2">
-        <v>20.253163198669281</v>
+        <v>12.81295862219201</v>
       </c>
       <c r="I63">
-        <v>29.02096007297456</v>
+        <v>18.250768497578282</v>
       </c>
       <c r="J63">
-        <v>24.826040049095749</v>
+        <v>14.337231609233241</v>
       </c>
       <c r="K63">
-        <v>4.1949200238788151</v>
+        <v>3.913536888345043</v>
       </c>
       <c r="L63">
-        <v>10.89400071979043</v>
+        <v>16.692890645428619</v>
       </c>
       <c r="M63">
-        <v>26.170000076293949</v>
+        <v>15.64000034332275</v>
       </c>
       <c r="N63" t="s">
         <v>41</v>
@@ -4049,41 +4049,41 @@
       <c r="B64" t="s">
         <v>15</v>
       </c>
-      <c r="C64" t="s">
-        <v>126</v>
+      <c r="C64" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D64">
-        <v>501030</v>
+        <v>601020</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="F64">
-        <v>27.440000534057621</v>
+        <v>18.489999771118161</v>
       </c>
       <c r="G64">
-        <v>32.009998321533203</v>
+        <v>23.059999465942379</v>
       </c>
       <c r="H64" s="2">
-        <v>16.65451056315927</v>
+        <v>24.71606139207567</v>
       </c>
       <c r="I64">
-        <v>36.726134043654397</v>
+        <v>24.060374450444559</v>
       </c>
       <c r="J64">
-        <v>30.712865323105859</v>
+        <v>22.992625236750261</v>
       </c>
       <c r="K64">
-        <v>6.0132687205485347</v>
+        <v>1.067749213694299</v>
       </c>
       <c r="L64">
-        <v>11.055743521528971</v>
+        <v>1.3922246716448949</v>
       </c>
       <c r="M64">
-        <v>33.069999694824219</v>
+        <v>23.729999542236332</v>
       </c>
       <c r="N64" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O64" t="s">
         <v>19</v>
@@ -4094,46 +4094,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D65">
-        <v>571020</v>
+        <v>501030</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F65">
-        <v>6.070000171661377</v>
+        <v>11.61999988555908</v>
       </c>
       <c r="G65">
-        <v>9.2200002670288086</v>
+        <v>15.569999694824221</v>
       </c>
       <c r="H65" s="2">
-        <v>51.894563530222548</v>
+        <v>33.993114011765662</v>
       </c>
       <c r="I65">
-        <v>10.6406959594088</v>
+        <v>17.92135988126071</v>
       </c>
       <c r="J65">
-        <v>9.2703040062589235</v>
+        <v>15.36063989748685</v>
       </c>
       <c r="K65">
-        <v>1.3703919531498769</v>
+        <v>2.560719983773863</v>
       </c>
       <c r="L65">
-        <v>11.304346154363779</v>
+        <v>8.2207757199396685</v>
       </c>
       <c r="M65">
-        <v>9.5600004196166992</v>
+        <v>16.559999465942379</v>
       </c>
       <c r="N65" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O65" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -4144,43 +4144,43 @@
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D66">
-        <v>561020</v>
+        <v>501030</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="F66">
-        <v>1.7400000095367429</v>
+        <v>9.1400003433227539</v>
       </c>
       <c r="G66">
-        <v>1.9800000190734861</v>
+        <v>11.35999965667725</v>
       </c>
       <c r="H66" s="2">
-        <v>13.793103920766111</v>
+        <v>24.288831837695898</v>
       </c>
       <c r="I66">
-        <v>2.2280804164177832</v>
+        <v>12.456410731692189</v>
       </c>
       <c r="J66">
-        <v>1.91691956450873</v>
+        <v>10.813589249234321</v>
       </c>
       <c r="K66">
-        <v>0.31116085190905268</v>
+        <v>1.642821482457876</v>
       </c>
       <c r="L66">
-        <v>11.40402082088916</v>
+        <v>6.3741305816710874</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>11.710000038146971</v>
       </c>
       <c r="N66" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="O66" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -4190,44 +4190,44 @@
       <c r="B67" t="s">
         <v>26</v>
       </c>
-      <c r="C67" t="s">
-        <v>154</v>
+      <c r="C67" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D67">
-        <v>551020</v>
+        <v>501030</v>
       </c>
       <c r="E67" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="F67">
-        <v>42.340000152587891</v>
+        <v>9.4600000381469727</v>
       </c>
       <c r="G67">
-        <v>48.5</v>
+        <v>11.939999580383301</v>
       </c>
       <c r="H67" s="2">
-        <v>14.54888952577296</v>
+        <v>26.21563987564328</v>
       </c>
       <c r="I67">
-        <v>55.817197631365403</v>
+        <v>13.0772507462987</v>
       </c>
       <c r="J67">
-        <v>48.766802383893392</v>
+        <v>11.33274929184827</v>
       </c>
       <c r="K67">
-        <v>7.0503952474720109</v>
+        <v>1.7445014544504249</v>
       </c>
       <c r="L67">
-        <v>11.634395262730809</v>
+        <v>7.8981094866195187</v>
       </c>
       <c r="M67">
-        <v>50</v>
+        <v>12.11999988555908</v>
       </c>
       <c r="N67" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="O67" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -4235,43 +4235,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" t="s">
-        <v>91</v>
+        <v>26</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D68">
-        <v>501030</v>
+        <v>501020</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F68">
-        <v>4.880000114440918</v>
+        <v>35.180000305175781</v>
       </c>
       <c r="G68">
-        <v>6.0399999618530273</v>
+        <v>45.790000915527337</v>
       </c>
       <c r="H68" s="2">
-        <v>23.77048811903575</v>
+        <v>30.15918282635883</v>
       </c>
       <c r="I68">
-        <v>7.0242004628149131</v>
+        <v>49.52315443804433</v>
       </c>
       <c r="J68">
-        <v>5.8687995200189489</v>
+        <v>44.273846065495697</v>
       </c>
       <c r="K68">
-        <v>1.1554009427959639</v>
+        <v>5.2493083725486258</v>
       </c>
       <c r="L68">
-        <v>11.67250406064535</v>
+        <v>4.6337471416505336</v>
       </c>
       <c r="M68">
-        <v>6.2899999618530273</v>
+        <v>47.330001831054688</v>
       </c>
       <c r="N68" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O68" t="s">
         <v>19</v>
@@ -4285,40 +4285,40 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="D69">
-        <v>531010</v>
+        <v>511010</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="F69">
-        <v>10.680000305175779</v>
+        <v>153.57000732421881</v>
       </c>
       <c r="G69">
-        <v>19.319999694824219</v>
+        <v>169.77000427246091</v>
       </c>
       <c r="H69" s="2">
-        <v>80.898868377946485</v>
+        <v>10.54893284861318</v>
       </c>
       <c r="I69">
-        <v>22.246096940351631</v>
+        <v>182.39847051632179</v>
       </c>
       <c r="J69">
-        <v>18.783902792619561</v>
+        <v>164.14853265750631</v>
       </c>
       <c r="K69">
-        <v>3.4621941477320628</v>
+        <v>18.249937858815489</v>
       </c>
       <c r="L69">
-        <v>11.845639130232451</v>
+        <v>7.2995262204734273</v>
       </c>
       <c r="M69">
-        <v>19.889999389648441</v>
+        <v>169.99000549316409</v>
       </c>
       <c r="N69" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="O69" t="s">
         <v>19</v>
@@ -4332,43 +4332,43 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D70">
-        <v>501030</v>
+        <v>562010</v>
       </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F70">
-        <v>5.0399999618530273</v>
+        <v>40.959999084472663</v>
       </c>
       <c r="G70">
-        <v>5.7100000381469727</v>
+        <v>45.849998474121087</v>
       </c>
       <c r="H70" s="2">
-        <v>13.293652408037129</v>
+        <v>11.938475339229599</v>
       </c>
       <c r="I70">
-        <v>6.5617412782575792</v>
+        <v>48.497329302442573</v>
       </c>
       <c r="J70">
-        <v>5.6222587370012098</v>
+        <v>45.458670453416808</v>
       </c>
       <c r="K70">
-        <v>0.93948254125636943</v>
+        <v>3.0386588490257509</v>
       </c>
       <c r="L70">
-        <v>11.97510458625743</v>
+        <v>3.8264402761764429</v>
       </c>
       <c r="M70">
-        <v>5.8600001335144043</v>
+        <v>46.709999084472663</v>
       </c>
       <c r="N70" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="O70" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -4378,41 +4378,41 @@
       <c r="B71" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>23</v>
+      <c r="C71" t="s">
+        <v>72</v>
       </c>
       <c r="D71">
-        <v>512010</v>
+        <v>501030</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="F71">
-        <v>10.63000011444092</v>
+        <v>30.920000076293949</v>
       </c>
       <c r="G71">
-        <v>17.489999771118161</v>
+        <v>39.459999084472663</v>
       </c>
       <c r="H71" s="2">
-        <v>64.53433285817087</v>
+        <v>27.619660372272261</v>
       </c>
       <c r="I71">
-        <v>19.720794296437361</v>
+        <v>41.737414520013381</v>
       </c>
       <c r="J71">
-        <v>16.4922056196393</v>
+        <v>38.983585006964162</v>
       </c>
       <c r="K71">
-        <v>3.2285886767980538</v>
+        <v>2.7538295130492259</v>
       </c>
       <c r="L71">
-        <v>11.98633511031807</v>
+        <v>3.643938528852948</v>
       </c>
       <c r="M71">
-        <v>17.610000610351559</v>
+        <v>40.270000457763672</v>
       </c>
       <c r="N71" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O71" t="s">
         <v>19</v>
@@ -4423,46 +4423,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="D72">
-        <v>601020</v>
+        <v>501030</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="F72">
-        <v>37.490001678466797</v>
+        <v>6.9699997901916504</v>
       </c>
       <c r="G72">
-        <v>42.319999694824219</v>
+        <v>9.9399995803833008</v>
       </c>
       <c r="H72" s="2">
-        <v>12.88342971489285</v>
+        <v>42.611189090293863</v>
       </c>
       <c r="I72">
-        <v>47.846768254126467</v>
+        <v>10.92606176840618</v>
       </c>
       <c r="J72">
-        <v>41.570231181298333</v>
+        <v>9.7619380523030514</v>
       </c>
       <c r="K72">
-        <v>6.2765370728281482</v>
+        <v>1.164123716103127</v>
       </c>
       <c r="L72">
-        <v>12.26365427787815</v>
+        <v>6.4918277257868233</v>
       </c>
       <c r="M72">
-        <v>42.619998931884773</v>
+        <v>10.260000228881839</v>
       </c>
       <c r="N72" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="O72" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -4470,46 +4470,46 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="D73">
-        <v>601010</v>
+        <v>521010</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="F73">
-        <v>10.47000026702881</v>
+        <v>77.510002136230469</v>
       </c>
       <c r="G73">
-        <v>12.010000228881839</v>
+        <v>85.30999755859375</v>
       </c>
       <c r="H73" s="2">
-        <v>14.708690760043799</v>
+        <v>10.06321146612037</v>
       </c>
       <c r="I73">
-        <v>13.593371122244051</v>
+        <v>90.542473818361088</v>
       </c>
       <c r="J73">
-        <v>11.89862907612021</v>
+        <v>84.41552483886548</v>
       </c>
       <c r="K73">
-        <v>1.6947420461238349</v>
+        <v>6.1269489794956087</v>
       </c>
       <c r="L73">
-        <v>12.34190655945193</v>
+        <v>5.0133061197638353</v>
       </c>
       <c r="M73">
-        <v>12.10000038146973</v>
+        <v>86.220001220703125</v>
       </c>
       <c r="N73" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="O73" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -4519,41 +4519,41 @@
       <c r="B74" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>117</v>
+      <c r="C74" t="s">
+        <v>181</v>
       </c>
       <c r="D74">
-        <v>512010</v>
+        <v>551010</v>
       </c>
       <c r="E74" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="F74">
-        <v>1.720000028610229</v>
+        <v>3.4800000190734859</v>
       </c>
       <c r="G74">
-        <v>2.029999971389771</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="H74" s="2">
-        <v>18.023252187386479</v>
+        <v>12.35632368966726</v>
       </c>
       <c r="I74">
-        <v>2.3502660835428149</v>
+        <v>4.3266985265322244</v>
       </c>
       <c r="J74">
-        <v>1.972733918364534</v>
+        <v>3.8283014210156892</v>
       </c>
       <c r="K74">
-        <v>0.37753216517828098</v>
+        <v>0.49839710551653438</v>
       </c>
       <c r="L74">
-        <v>12.45292727569074</v>
+        <v>9.260062748808517</v>
       </c>
       <c r="M74">
-        <v>2.089999914169312</v>
+        <v>3.9600000381469731</v>
       </c>
       <c r="N74" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="O74" t="s">
         <v>19</v>
@@ -4567,43 +4567,43 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D75">
-        <v>501020</v>
+        <v>551010</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F75">
-        <v>24.120000839233398</v>
+        <v>27.70999908447266</v>
       </c>
       <c r="G75">
-        <v>30.139999389648441</v>
+        <v>36.319999694824219</v>
       </c>
       <c r="H75" s="2">
-        <v>24.958533751885099</v>
+        <v>31.071818458399701</v>
       </c>
       <c r="I75">
-        <v>34.509604747089277</v>
+        <v>39.289820458553052</v>
       </c>
       <c r="J75">
-        <v>29.649394695964929</v>
+        <v>35.196178839542661</v>
       </c>
       <c r="K75">
-        <v>4.8602100511243513</v>
+        <v>4.0936416190103841</v>
       </c>
       <c r="L75">
-        <v>12.59251281107872</v>
+        <v>7.8501787796333229</v>
       </c>
       <c r="M75">
-        <v>30.64999961853027</v>
+        <v>36.430000305175781</v>
       </c>
       <c r="N75" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O75" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -4613,38 +4613,38 @@
       <c r="B76" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>85</v>
+      <c r="C76" t="s">
+        <v>126</v>
       </c>
       <c r="D76">
         <v>501030</v>
       </c>
       <c r="E76" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F76">
-        <v>11.38000011444092</v>
+        <v>27.440000534057621</v>
       </c>
       <c r="G76">
-        <v>14.159999847412109</v>
+        <v>32.009998321533203</v>
       </c>
       <c r="H76" s="2">
-        <v>24.428819903467701</v>
+        <v>16.65451056315927</v>
       </c>
       <c r="I76">
-        <v>16.949033205752229</v>
+        <v>36.726134043654397</v>
       </c>
       <c r="J76">
-        <v>13.52996679043307</v>
+        <v>30.712865323105859</v>
       </c>
       <c r="K76">
-        <v>3.4190664153191519</v>
+        <v>6.0132687205485347</v>
       </c>
       <c r="L76">
-        <v>12.693040217694209</v>
+        <v>11.055743521528971</v>
       </c>
       <c r="M76">
-        <v>15.039999961853029</v>
+        <v>33.069999694824219</v>
       </c>
       <c r="N76" t="s">
         <v>41</v>
@@ -4661,40 +4661,40 @@
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D77">
-        <v>533010</v>
+        <v>512010</v>
       </c>
       <c r="E77" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F77">
-        <v>3.2300000190734859</v>
+        <v>51.25</v>
       </c>
       <c r="G77">
-        <v>3.7100000381469731</v>
+        <v>59.599998474121087</v>
       </c>
       <c r="H77" s="2">
-        <v>14.86068161730763</v>
+        <v>16.29267994950456</v>
       </c>
       <c r="I77">
-        <v>4.5025022616628307</v>
+        <v>66.852869439042635</v>
       </c>
       <c r="J77">
-        <v>3.5444977650400489</v>
+        <v>56.537131857954442</v>
       </c>
       <c r="K77">
-        <v>0.95800449662278142</v>
+        <v>10.3157375810882</v>
       </c>
       <c r="L77">
-        <v>12.844667942384071</v>
+        <v>9.7568044763063995</v>
       </c>
       <c r="M77">
-        <v>3.9900000095367432</v>
+        <v>60.909999847412109</v>
       </c>
       <c r="N77" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="O77" t="s">
         <v>19</v>
@@ -4708,37 +4708,37 @@
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="D78">
         <v>501020</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="F78">
-        <v>12.22000026702881</v>
+        <v>21.139999389648441</v>
       </c>
       <c r="G78">
-        <v>15.64000034332275</v>
+        <v>23.969999313354489</v>
       </c>
       <c r="H78" s="2">
-        <v>27.98690672308382</v>
+        <v>13.386944207253929</v>
       </c>
       <c r="I78">
-        <v>18.579989912033248</v>
+        <v>25.998932949843539</v>
       </c>
       <c r="J78">
-        <v>15.228010175704791</v>
+        <v>23.381066973862509</v>
       </c>
       <c r="K78">
-        <v>3.3519797363284671</v>
+        <v>2.6178659759810259</v>
       </c>
       <c r="L78">
-        <v>13.2926240500629</v>
+        <v>6.5966937288155991</v>
       </c>
       <c r="M78">
-        <v>16.39999961853027</v>
+        <v>24.389999389648441</v>
       </c>
       <c r="N78" t="s">
         <v>44</v>
@@ -4755,40 +4755,40 @@
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="D79">
-        <v>532020</v>
+        <v>501020</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="F79">
-        <v>50.430000305175781</v>
+        <v>12.22000026702881</v>
       </c>
       <c r="G79">
-        <v>56.409999847412109</v>
+        <v>15.64000034332275</v>
       </c>
       <c r="H79" s="2">
-        <v>11.858020039755161</v>
+        <v>27.98690672308382</v>
       </c>
       <c r="I79">
-        <v>65.69448312012085</v>
+        <v>18.579989912033248</v>
       </c>
       <c r="J79">
-        <v>53.440517490230732</v>
+        <v>15.228010175704791</v>
       </c>
       <c r="K79">
-        <v>12.25396562989012</v>
+        <v>3.3519797363284671</v>
       </c>
       <c r="L79">
-        <v>13.579673144557439</v>
+        <v>13.2926240500629</v>
       </c>
       <c r="M79">
-        <v>57.840000152587891</v>
+        <v>16.39999961853027</v>
       </c>
       <c r="N79" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="O79" t="s">
         <v>19</v>
@@ -4799,43 +4799,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>501020</v>
+        <v>531010</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="F80">
-        <v>25.020000457763668</v>
+        <v>10.680000305175779</v>
       </c>
       <c r="G80">
-        <v>30.39999961853027</v>
+        <v>19.319999694824219</v>
       </c>
       <c r="H80" s="2">
-        <v>21.502794014127179</v>
+        <v>80.898868377946485</v>
       </c>
       <c r="I80">
-        <v>35.581932142011468</v>
+        <v>22.246096940351631</v>
       </c>
       <c r="J80">
-        <v>29.86106750703637</v>
+        <v>18.783902792619561</v>
       </c>
       <c r="K80">
-        <v>5.7208646349751007</v>
+        <v>3.4621941477320628</v>
       </c>
       <c r="L80">
-        <v>13.68029715438758</v>
+        <v>11.845639130232451</v>
       </c>
       <c r="M80">
-        <v>31.29999923706055</v>
+        <v>19.889999389648441</v>
       </c>
       <c r="N80" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="O80" t="s">
         <v>19</v>
@@ -4846,43 +4846,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
       </c>
       <c r="D81">
-        <v>501010</v>
+        <v>533010</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="F81">
-        <v>3.3199999332427979</v>
+        <v>3.2300000190734859</v>
       </c>
       <c r="G81">
-        <v>7.929999828338623</v>
+        <v>3.7100000381469731</v>
       </c>
       <c r="H81" s="2">
-        <v>138.85542131903071</v>
+        <v>14.86068161730763</v>
       </c>
       <c r="I81">
-        <v>9.3575410212958747</v>
+        <v>4.5025022616628307</v>
       </c>
       <c r="J81">
-        <v>6.7674588833366922</v>
+        <v>3.5444977650400489</v>
       </c>
       <c r="K81">
-        <v>2.590082137959183</v>
+        <v>0.95800449662278142</v>
       </c>
       <c r="L81">
-        <v>14.25569597963193</v>
+        <v>12.844667942384071</v>
       </c>
       <c r="M81">
-        <v>8.1899995803833008</v>
+        <v>3.9900000095367432</v>
       </c>
       <c r="N81" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="O81" t="s">
         <v>19</v>
@@ -4896,43 +4896,43 @@
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="D82">
-        <v>522030</v>
+        <v>561020</v>
       </c>
       <c r="E82" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F82">
-        <v>17.70999908447266</v>
+        <v>51.299999237060547</v>
       </c>
       <c r="G82">
-        <v>20.420000076293949</v>
+        <v>66.989997863769531</v>
       </c>
       <c r="H82" s="2">
-        <v>15.30209560652829</v>
+        <v>30.58479309951743</v>
       </c>
       <c r="I82">
-        <v>24.010481551317799</v>
+        <v>69.802049345414275</v>
       </c>
       <c r="J82">
-        <v>19.628518387647041</v>
+        <v>65.957949739058392</v>
       </c>
       <c r="K82">
-        <v>4.3819631636707612</v>
+        <v>3.8440996063558832</v>
       </c>
       <c r="L82">
-        <v>14.49920046505207</v>
+        <v>2.7709823722131408</v>
       </c>
       <c r="M82">
-        <v>20.969999313354489</v>
+        <v>67.919998168945313</v>
       </c>
       <c r="N82" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="O82" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -4942,44 +4942,44 @@
       <c r="B83" t="s">
         <v>26</v>
       </c>
-      <c r="C83" t="s">
-        <v>157</v>
+      <c r="C83" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D83">
-        <v>534030</v>
+        <v>521020</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F83">
-        <v>27.840000152587891</v>
+        <v>26.969999313354489</v>
       </c>
       <c r="G83">
-        <v>31.870000839233398</v>
+        <v>30.940000534057621</v>
       </c>
       <c r="H83" s="2">
-        <v>14.47557709970377</v>
+        <v>14.720064226094861</v>
       </c>
       <c r="I83">
-        <v>38.958138990750662</v>
+        <v>33.341046684155224</v>
       </c>
       <c r="J83">
-        <v>31.63286118472541</v>
+        <v>29.32095282756352</v>
       </c>
       <c r="K83">
-        <v>7.3252778060252517</v>
+        <v>4.0200938565916999</v>
       </c>
       <c r="L83">
-        <v>14.65020457792127</v>
+        <v>5.176800888706353</v>
       </c>
       <c r="M83">
-        <v>33.979999542236328</v>
+        <v>31.70000076293945</v>
       </c>
       <c r="N83" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O83" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -4990,43 +4990,43 @@
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D84">
-        <v>501030</v>
+        <v>601020</v>
       </c>
       <c r="E84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F84">
-        <v>7.6500000953674316</v>
+        <v>11.329999923706049</v>
       </c>
       <c r="G84">
-        <v>9.0500001907348633</v>
+        <v>13.44999980926514</v>
       </c>
       <c r="H84" s="2">
-        <v>18.30065461326231</v>
+        <v>18.71138481760579</v>
       </c>
       <c r="I84">
-        <v>10.762234205116419</v>
+        <v>14.438343851829901</v>
       </c>
       <c r="J84">
-        <v>8.4787657796247959</v>
+        <v>13.408656079505549</v>
       </c>
       <c r="K84">
-        <v>2.2834684254916202</v>
+        <v>1.029687772324358</v>
       </c>
       <c r="L84">
-        <v>14.98113888753022</v>
+        <v>5.6206567026169569</v>
       </c>
       <c r="M84">
-        <v>9.3599996566772461</v>
+        <v>13.670000076293951</v>
       </c>
       <c r="N84" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O84" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -5036,41 +5036,41 @@
       <c r="B85" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>68</v>
+      <c r="C85" t="s">
+        <v>200</v>
       </c>
       <c r="D85">
-        <v>501030</v>
+        <v>601020</v>
       </c>
       <c r="E85" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="F85">
-        <v>3.6700000762939449</v>
+        <v>17.090000152587891</v>
       </c>
       <c r="G85">
-        <v>4.7600002288818359</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="H85" s="2">
-        <v>29.700276019846822</v>
+        <v>11.761265131278931</v>
       </c>
       <c r="I85">
-        <v>5.9005997669799424</v>
+        <v>20.456440987391758</v>
       </c>
       <c r="J85">
-        <v>4.5664002883331687</v>
+        <v>18.88855927963705</v>
       </c>
       <c r="K85">
-        <v>1.3341994786467739</v>
+        <v>1.5678817077547149</v>
       </c>
       <c r="L85">
-        <v>15.471616689015679</v>
+        <v>5.6634315210400654</v>
       </c>
       <c r="M85">
-        <v>5.1100001335144043</v>
+        <v>19.360000610351559</v>
       </c>
       <c r="N85" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="O85" t="s">
         <v>19</v>
@@ -5084,40 +5084,40 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="D86">
-        <v>512010</v>
+        <v>503010</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="F86">
-        <v>16.79000091552734</v>
+        <v>1.25</v>
       </c>
       <c r="G86">
-        <v>20.920000076293949</v>
+        <v>1.3999999761581421</v>
       </c>
       <c r="H86" s="2">
-        <v>24.597968645416749</v>
+        <v>11.99999809265138</v>
       </c>
       <c r="I86">
-        <v>24.290338372755379</v>
+        <v>1.7737386422493131</v>
       </c>
       <c r="J86">
-        <v>20.055661726426749</v>
+        <v>1.3462613505981289</v>
       </c>
       <c r="K86">
-        <v>4.234676646328623</v>
+        <v>0.4274772916511842</v>
       </c>
       <c r="L86">
-        <v>15.83375855089497</v>
+        <v>24.911175764462989</v>
       </c>
       <c r="M86">
-        <v>20.969999313354489</v>
+        <v>1.419999957084656</v>
       </c>
       <c r="N86" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="O86" t="s">
         <v>19</v>
@@ -5131,40 +5131,40 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="D87">
-        <v>501030</v>
+        <v>511010</v>
       </c>
       <c r="E87" t="s">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="F87">
-        <v>13.579999923706049</v>
+        <v>26.370000839233398</v>
       </c>
       <c r="G87">
-        <v>15.319999694824221</v>
+        <v>32.459999084472663</v>
       </c>
       <c r="H87" s="2">
-        <v>12.81295862219201</v>
+        <v>23.094418094134191</v>
       </c>
       <c r="I87">
-        <v>18.250768497578282</v>
+        <v>34.729170640451301</v>
       </c>
       <c r="J87">
-        <v>14.337231609233241</v>
+        <v>31.86582905437292</v>
       </c>
       <c r="K87">
-        <v>3.913536888345043</v>
+        <v>2.8633415860783771</v>
       </c>
       <c r="L87">
-        <v>16.692890645428619</v>
+        <v>6.0109048223722201</v>
       </c>
       <c r="M87">
-        <v>15.64000034332275</v>
+        <v>32.759998321533203</v>
       </c>
       <c r="N87" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="O87" t="s">
         <v>19</v>
@@ -5178,40 +5178,40 @@
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="D88">
-        <v>541020</v>
+        <v>501030</v>
       </c>
       <c r="E88" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="F88">
-        <v>8.1700000762939453</v>
+        <v>23.770000457763668</v>
       </c>
       <c r="G88">
-        <v>10.039999961853029</v>
+        <v>26.54999923706055</v>
       </c>
       <c r="H88" s="2">
-        <v>22.888615276578399</v>
+        <v>11.695409027175179</v>
       </c>
       <c r="I88">
-        <v>12.07853543616614</v>
+        <v>28.573394632768519</v>
       </c>
       <c r="J88">
-        <v>9.864464403616573</v>
+        <v>25.7466050620557</v>
       </c>
       <c r="K88">
-        <v>2.2140710325495689</v>
+        <v>2.8267895707128261</v>
       </c>
       <c r="L88">
-        <v>19.000353597206551</v>
+        <v>6.6171471872865748</v>
       </c>
       <c r="M88">
-        <v>10.14999961853027</v>
+        <v>26.79999923706055</v>
       </c>
       <c r="N88" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="O88" t="s">
         <v>19</v>
@@ -5222,43 +5222,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="D89">
-        <v>501020</v>
+        <v>501030</v>
       </c>
       <c r="E89" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="F89">
-        <v>3.8599998950958252</v>
+        <v>4.880000114440918</v>
       </c>
       <c r="G89">
-        <v>4.320000171661377</v>
+        <v>6.0399999618530273</v>
       </c>
       <c r="H89" s="2">
-        <v>11.91710593438067</v>
+        <v>23.77048811903575</v>
       </c>
       <c r="I89">
-        <v>5.343379321815469</v>
+        <v>7.0242004628149131</v>
       </c>
       <c r="J89">
-        <v>3.980620702980064</v>
+        <v>5.8687995200189489</v>
       </c>
       <c r="K89">
-        <v>1.3627586188354051</v>
+        <v>1.1554009427959639</v>
       </c>
       <c r="L89">
-        <v>19.806710226745199</v>
+        <v>11.67250406064535</v>
       </c>
       <c r="M89">
-        <v>4.4600000381469727</v>
+        <v>6.2899999618530273</v>
       </c>
       <c r="N89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O89" t="s">
         <v>19</v>
@@ -5271,44 +5271,44 @@
       <c r="B90" t="s">
         <v>26</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>63</v>
+      <c r="C90" t="s">
+        <v>37</v>
       </c>
       <c r="D90">
-        <v>562020</v>
+        <v>531010</v>
       </c>
       <c r="E90" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F90">
-        <v>1.299999952316284</v>
+        <v>56.740001678466797</v>
       </c>
       <c r="G90">
-        <v>1.690000057220459</v>
+        <v>83.870002746582031</v>
       </c>
       <c r="H90" s="2">
-        <v>30.000009169945699</v>
+        <v>47.8145933478378</v>
       </c>
       <c r="I90">
-        <v>2.110706924217332</v>
+        <v>92.090604947084969</v>
       </c>
       <c r="J90">
-        <v>1.6262930524176471</v>
+        <v>83.512394930844707</v>
       </c>
       <c r="K90">
-        <v>0.48441387179968493</v>
+        <v>8.5782100162402628</v>
       </c>
       <c r="L90">
-        <v>19.92653043491007</v>
+        <v>6.0585085858524437</v>
       </c>
       <c r="M90">
-        <v>1.7599999904632571</v>
+        <v>86.830001831054688</v>
       </c>
       <c r="N90" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O90" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -5316,43 +5316,43 @@
         <v>44379.670846208333</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D91">
-        <v>503010</v>
+        <v>524050</v>
       </c>
       <c r="E91" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="F91">
-        <v>1.25</v>
+        <v>125.5</v>
       </c>
       <c r="G91">
-        <v>1.3999999761581421</v>
+        <v>139.88999938964841</v>
       </c>
       <c r="H91" s="2">
-        <v>11.99999809265138</v>
+        <v>11.466134971831419</v>
       </c>
       <c r="I91">
-        <v>1.7737386422493131</v>
+        <v>154.0387268910585</v>
       </c>
       <c r="J91">
-        <v>1.3462613505981289</v>
+        <v>137.3402724375548</v>
       </c>
       <c r="K91">
-        <v>0.4274772916511842</v>
+        <v>16.69845445350364</v>
       </c>
       <c r="L91">
-        <v>24.911175764462989</v>
+        <v>8.8920681324682889</v>
       </c>
       <c r="M91">
-        <v>1.419999957084656</v>
+        <v>141.46000671386719</v>
       </c>
       <c r="N91" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="O91" t="s">
         <v>19</v>
@@ -5360,7 +5360,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O91">
-    <sortCondition ref="L2:L91"/>
+    <sortCondition ref="C2:C91"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
